--- a/Design/Excel/Code/Datas/__tables__.xlsx
+++ b/Design/Excel/Code/Datas/__tables__.xlsx
@@ -115,7 +115,7 @@
     <t>DRUIForm</t>
   </si>
   <si>
-    <t>UGF/UI.xlsx</t>
+    <t>UI.xlsx</t>
   </si>
   <si>
     <t>c,e</t>
@@ -127,7 +127,7 @@
     <t>DREntity</t>
   </si>
   <si>
-    <t>UGF/Entity.xlsx</t>
+    <t>Entity.xlsx</t>
   </si>
   <si>
     <t>DTScene</t>
@@ -136,7 +136,7 @@
     <t>DRScene</t>
   </si>
   <si>
-    <t>UGF/Scene.xlsx</t>
+    <t>Scene.xlsx</t>
   </si>
   <si>
     <t>DTSound</t>
@@ -145,7 +145,7 @@
     <t>DRSound</t>
   </si>
   <si>
-    <t>UGF/Sound@Sound.xlsx</t>
+    <t>Sound@Sound.xlsx</t>
   </si>
   <si>
     <t>DTUISound</t>
@@ -154,7 +154,7 @@
     <t>DRUISound</t>
   </si>
   <si>
-    <t>UGF/UISound@Sound.xlsx</t>
+    <t>UISound@Sound.xlsx</t>
   </si>
   <si>
     <t>DTMusic</t>
@@ -163,7 +163,7 @@
     <t>DRMusic</t>
   </si>
   <si>
-    <t>UGF/Music@Sound.xlsx</t>
+    <t>Music@Sound.xlsx</t>
   </si>
   <si>
     <t>DTOneConfig</t>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1397,9 +1397,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="UGF/Sound@Sound.xlsx"/>
-    <hyperlink ref="E8" r:id="rId2" display="UGF/UISound@Sound.xlsx"/>
-    <hyperlink ref="E9" r:id="rId3" display="UGF/Music@Sound.xlsx"/>
+    <hyperlink ref="E7" r:id="rId1" display="Sound@Sound.xlsx"/>
+    <hyperlink ref="E8" r:id="rId2" display="UISound@Sound.xlsx"/>
+    <hyperlink ref="E9" r:id="rId3" display="Music@Sound.xlsx"/>
     <hyperlink ref="E10" r:id="rId3" display="OneConfig.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
